--- a/docs/pipelines.xlsx
+++ b/docs/pipelines.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="115">
   <si>
     <t>Roles</t>
   </si>
@@ -714,7 +714,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> - 1.4.  Notifiy slack "business approval" channel when the prod pipeline "request for approval" stage is manually triggered. Work on providing "rich" message detail.</t>
+      <t xml:space="preserve"> - 1. Business Case (3 mins)</t>
     </r>
   </si>
   <si>
@@ -732,7 +732,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> - 1. Business Case (3 mins)</t>
+      <t xml:space="preserve"> - 2. Solution to the business case (2 mins)</t>
     </r>
   </si>
   <si>
@@ -750,8 +750,11 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> - 2. Solution to the business case (2 mins)</t>
-    </r>
+      <t xml:space="preserve"> - 3. Demo (5 mins)</t>
+    </r>
+  </si>
+  <si>
+    <t>Extra credit</t>
   </si>
   <si>
     <r>
@@ -768,11 +771,29 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> - 3. Demo (5 mins)</t>
-    </r>
-  </si>
-  <si>
-    <t>Extra credit</t>
+      <t xml:space="preserve"> - 1. Implement what we can using Spinnaker</t>
+    </r>
+  </si>
+  <si>
+    <t>Extra</t>
+  </si>
+  <si>
+    <t>https://medium.com/slack-developer-blog/easy-peasy-slash-commands-getting-started-c37ff3f14d3e</t>
+  </si>
+  <si>
+    <t>https://cloud.google.com/solutions/continuous-delivery-spinnaker-kubernetes-engine</t>
+  </si>
+  <si>
+    <t>pipelines tab of this spreadsheet</t>
+  </si>
+  <si>
+    <t>https://github.com/cinnojam/AdvanvcedCICDPipeline/wiki</t>
+  </si>
+  <si>
+    <t>https://stackoverflow.com/questions/10888610/ignore-invalid-self-signed-ssl-certificate-in-node-js-with-https-request</t>
+  </si>
+  <si>
+    <t>https://github.com/DEGoodmanWilson/easy-peasy-slash-command-app</t>
   </si>
   <si>
     <r>
@@ -789,29 +810,15 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> - 1. Implement what we can using Spinnaker</t>
-    </r>
-  </si>
-  <si>
-    <t>Extra</t>
-  </si>
-  <si>
-    <t>https://medium.com/slack-developer-blog/easy-peasy-slash-commands-getting-started-c37ff3f14d3e</t>
-  </si>
-  <si>
-    <t>https://cloud.google.com/solutions/continuous-delivery-spinnaker-kubernetes-engine</t>
-  </si>
-  <si>
-    <t>pipelines tab of this spreadsheet</t>
-  </si>
-  <si>
-    <t>https://github.com/cinnojam/AdvanvcedCICDPipeline/wiki</t>
-  </si>
-  <si>
-    <t>https://stackoverflow.com/questions/10888610/ignore-invalid-self-signed-ssl-certificate-in-node-js-with-https-request</t>
-  </si>
-  <si>
-    <t>https://github.com/DEGoodmanWilson/easy-peasy-slash-command-app</t>
+      <t xml:space="preserve"> - 1.4.  Notifiy slack "business approval" channel when the prod pipeline "request for approval" stage is manually triggered.
+               - Work on providing "rich" message detail.
+               - Use message buttons</t>
+    </r>
+  </si>
+  <si>
+    <t>https://api.slack.com/docs/message-formatting
+https://api.slack.com/interactive-messages
+https://api.slack.com/docs/message-buttons</t>
   </si>
 </sst>
 </file>
@@ -819,7 +826,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="yyyy\-mm\-dd\,\ h:mm\ AM/PM"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\,\ h:mm\ AM/PM"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -897,17 +904,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -920,22 +918,13 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
@@ -950,6 +939,30 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1246,27 +1259,27 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1291,557 +1304,566 @@
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.5703125"/>
-    <col min="2" max="2" width="26.5703125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="28.85546875" style="6" customWidth="1"/>
-    <col min="4" max="4" width="18" style="6" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" style="6"/>
-    <col min="6" max="6" width="61.5703125" style="6" customWidth="1"/>
-    <col min="7" max="7" width="46.140625" style="6" customWidth="1"/>
-    <col min="8" max="11" width="11.5703125" style="6"/>
+    <col min="2" max="2" width="26.5703125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="28.85546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="18" style="3" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" style="3"/>
+    <col min="6" max="6" width="61.5703125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="46.140625" style="3" customWidth="1"/>
+    <col min="8" max="11" width="11.5703125" style="3"/>
     <col min="12" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="8" t="s">
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="8" t="s">
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="3"/>
-      <c r="C7" s="2" t="s">
+      <c r="B7" s="18"/>
+      <c r="C7" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="2" t="s">
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="2" t="s">
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="10" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="G10" s="5" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3" t="s">
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="G11" s="5" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="8" t="s">
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="G12" s="5" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="8" t="s">
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="F13" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="G13" s="8" t="s">
+      <c r="G13" s="5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3" t="s">
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="F14" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="G14" s="8" t="s">
+      <c r="G14" s="5" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="8" t="s">
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="F15" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="G15" s="8" t="s">
+      <c r="G15" s="5" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="16" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="3"/>
-      <c r="C16" s="2" t="s">
+      <c r="B16" s="18"/>
+      <c r="C16" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E16" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F16" s="8" t="s">
+      <c r="F16" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G16" s="8" t="s">
+      <c r="G16" s="5" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B17" s="3"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="3" t="s">
+      <c r="B17" s="18"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="F17" s="8" t="s">
+      <c r="F17" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G17" s="8" t="s">
+      <c r="G17" s="5" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B18" s="3"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="8" t="s">
+      <c r="B18" s="18"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="G18" s="8" t="s">
+      <c r="G18" s="5" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B19" s="3"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="8" t="s">
+      <c r="B19" s="18"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="E19" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="F19" s="8" t="s">
+      <c r="F19" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="G19" s="8" t="s">
+      <c r="G19" s="5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B20" s="3"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="3" t="s">
+      <c r="B20" s="18"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="E20" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F20" s="8" t="s">
+      <c r="F20" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="G20" s="8" t="s">
+      <c r="G20" s="5" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B21" s="3"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="8" t="s">
+      <c r="B21" s="18"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F21" s="8" t="s">
+      <c r="F21" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="G21" s="8" t="s">
+      <c r="G21" s="5" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="22" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="E22" s="8" t="s">
+      <c r="E22" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="F22" s="8" t="s">
+      <c r="F22" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="G22" s="8" t="s">
+      <c r="G22" s="5" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="23" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="1" t="s">
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E23" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="F23" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="G23" s="2" t="s">
+      <c r="G23" s="17" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="24" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
     </row>
     <row r="25" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
     </row>
     <row r="26" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="1" t="s">
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E26" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="F26" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="G26" s="2" t="s">
+      <c r="G26" s="17" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="27" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
     </row>
     <row r="28" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3" t="s">
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="E29" s="8" t="s">
+      <c r="E29" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F29" s="8" t="s">
+      <c r="F29" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G29" s="8" t="s">
+      <c r="G29" s="5" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3" t="s">
+      <c r="B30" s="18"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="F30" s="8" t="s">
+      <c r="F30" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="G30" s="8" t="s">
+      <c r="G30" s="5" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="8" t="s">
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="G31" s="8" t="s">
+      <c r="G31" s="5" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="8" t="s">
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="G32" s="8" t="s">
+      <c r="G32" s="5" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="8" t="s">
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="G33" s="8" t="s">
+      <c r="G33" s="5" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3" t="s">
+      <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="E34" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F34" s="8" t="s">
+      <c r="F34" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="G34" s="8" t="s">
+      <c r="G34" s="5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="8" t="s">
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="G35" s="8" t="s">
+      <c r="G35" s="5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3" t="s">
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="E36" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="F36" s="8" t="s">
+      <c r="F36" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="G36" s="8" t="s">
+      <c r="G36" s="5" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3" t="s">
+      <c r="B37" s="18"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="F37" s="8" t="s">
+      <c r="F37" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="G37" s="8" t="s">
+      <c r="G37" s="5" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3" t="s">
+      <c r="B38" s="18"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F38" s="8" t="s">
+      <c r="F38" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="G38" s="8" t="s">
+      <c r="G38" s="5" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="8" t="s">
+      <c r="B39" s="18"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="G39" s="8" t="s">
+      <c r="G39" s="5" t="s">
         <v>67</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="G23:G25"/>
-    <mergeCell ref="D26:D28"/>
-    <mergeCell ref="E26:E28"/>
-    <mergeCell ref="F26:F28"/>
-    <mergeCell ref="G26:G28"/>
+    <mergeCell ref="B4:B9"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="B10:B21"/>
+    <mergeCell ref="C10:C15"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="C16:C21"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="D20:D21"/>
     <mergeCell ref="B22:B39"/>
     <mergeCell ref="C22:C39"/>
     <mergeCell ref="D23:D25"/>
@@ -1854,20 +1876,11 @@
     <mergeCell ref="D36:D39"/>
     <mergeCell ref="E36:E37"/>
     <mergeCell ref="E38:E39"/>
-    <mergeCell ref="B10:B21"/>
-    <mergeCell ref="C10:C15"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="C16:C21"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="B4:B9"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="G23:G25"/>
+    <mergeCell ref="D26:D28"/>
+    <mergeCell ref="E26:E28"/>
+    <mergeCell ref="F26:F28"/>
+    <mergeCell ref="G26:G28"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -1883,1054 +1896,1056 @@
   <dimension ref="A1:F97"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="136.5703125" style="22" customWidth="1"/>
+    <col min="1" max="1" width="104.42578125" style="16" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="4" width="19.85546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="19.85546875" style="9" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="54.5703125" style="14" customWidth="1"/>
+    <col min="6" max="6" width="54.5703125" style="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="12" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="21" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="C3" s="17">
+      <c r="C3" s="11">
         <v>43306.333333333336</v>
       </c>
-      <c r="D3" s="17">
+      <c r="D3" s="11">
         <v>43306.833333333336</v>
       </c>
-      <c r="E3" s="11"/>
-      <c r="F3" t="s">
+      <c r="E3" s="7"/>
+      <c r="F3" s="22" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="11">
+        <v>43306.333333333336</v>
+      </c>
+      <c r="D4" s="11">
+        <v>43306.833333333336</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="22"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="11">
+        <v>43306.333333333336</v>
+      </c>
+      <c r="D5" s="11">
+        <v>43306.833333333336</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="22"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="11">
+        <v>43306.333333333336</v>
+      </c>
+      <c r="D6" s="11">
+        <v>43306.833333333336</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="22"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="11">
+        <v>43306.333333333336</v>
+      </c>
+      <c r="D7" s="11">
+        <v>43306.833333333336</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="22"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="11">
+        <v>43306.333333333336</v>
+      </c>
+      <c r="D8" s="11">
+        <v>43306.833333333336</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="22"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="11">
+        <v>43306.333333333336</v>
+      </c>
+      <c r="D9" s="11">
+        <v>43306.833333333336</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="22"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="11">
+        <v>43306.333333333336</v>
+      </c>
+      <c r="D10" s="11">
+        <v>43306.833333333336</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="22"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="11">
+        <v>43306.333333333336</v>
+      </c>
+      <c r="D11" s="11">
+        <v>43306.833333333336</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="22"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" s="11">
+        <v>43306.333333333336</v>
+      </c>
+      <c r="D12" s="11">
+        <v>43306.833333333336</v>
+      </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="22"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" s="11">
+        <v>43306.333333333336</v>
+      </c>
+      <c r="D13" s="11">
+        <v>43307.333333333336</v>
+      </c>
+      <c r="E13" s="7"/>
+      <c r="F13" s="22"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" s="11">
+        <v>43306.333333333336</v>
+      </c>
+      <c r="D14" s="11">
+        <v>43307.333333333336</v>
+      </c>
+      <c r="E14" s="7"/>
+      <c r="F14" s="22" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" s="11">
+        <v>43306.333333333336</v>
+      </c>
+      <c r="D15" s="11">
+        <v>43307.333333333336</v>
+      </c>
+      <c r="E15" s="7"/>
+      <c r="F15" s="22"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C16" s="11">
+        <v>43306.333333333336</v>
+      </c>
+      <c r="D16" s="11">
+        <v>43307.333333333336</v>
+      </c>
+      <c r="E16" s="7"/>
+      <c r="F16" s="22"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C17" s="11">
+        <v>43306.333333333336</v>
+      </c>
+      <c r="D17" s="11">
+        <v>43307.333333333336</v>
+      </c>
+      <c r="E17" s="7"/>
+      <c r="F17" s="22"/>
+    </row>
+    <row r="18" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" s="11">
+        <v>43306.333333333336</v>
+      </c>
+      <c r="D18" s="11">
+        <v>43307.333333333336</v>
+      </c>
+      <c r="E18" s="7"/>
+      <c r="F18" s="23" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" s="11">
+        <v>43306.333333333336</v>
+      </c>
+      <c r="D19" s="11">
+        <v>43307.333333333336</v>
+      </c>
+      <c r="E19" s="7"/>
+      <c r="F19" s="22"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C20" s="11">
+        <v>43306.333333333336</v>
+      </c>
+      <c r="D20" s="11">
+        <v>43307.333333333336</v>
+      </c>
+      <c r="E20" s="7"/>
+      <c r="F20" s="22"/>
+    </row>
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C21" s="11">
+        <v>43306.333333333336</v>
+      </c>
+      <c r="D21" s="11">
+        <v>43307.333333333336</v>
+      </c>
+      <c r="E21" s="7"/>
+      <c r="F21" s="22" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C22" s="11">
+        <v>43306.333333333336</v>
+      </c>
+      <c r="D22" s="11">
+        <v>43307.333333333336</v>
+      </c>
+      <c r="E22" s="7"/>
+      <c r="F22" s="22" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" s="11">
+        <v>43306.333333333336</v>
+      </c>
+      <c r="D23" s="11">
+        <v>43307.333333333336</v>
+      </c>
+      <c r="E23" s="7"/>
+      <c r="F23" s="22"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" s="11">
+        <v>43306.333333333336</v>
+      </c>
+      <c r="D24" s="11">
+        <v>43307.333333333336</v>
+      </c>
+      <c r="E24" s="7"/>
+      <c r="F24" s="22"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C25" s="11">
+        <v>43306.333333333336</v>
+      </c>
+      <c r="D25" s="11">
+        <v>43307.333333333336</v>
+      </c>
+      <c r="E25" s="7"/>
+      <c r="F25" s="22"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C26" s="11">
+        <v>43306.333333333336</v>
+      </c>
+      <c r="D26" s="11">
+        <v>43307.333333333336</v>
+      </c>
+      <c r="E26" s="7"/>
+      <c r="F26" s="22" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="C4" s="17">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C27" s="11">
         <v>43306.333333333336</v>
       </c>
-      <c r="D4" s="17">
-        <v>43306.833333333336</v>
-      </c>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="C5" s="17">
+      <c r="D27" s="11">
+        <v>43307.333333333336</v>
+      </c>
+      <c r="E27" s="7"/>
+      <c r="F27" s="22"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C28" s="11">
         <v>43306.333333333336</v>
       </c>
-      <c r="D5" s="17">
-        <v>43306.833333333336</v>
-      </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="C6" s="17">
+      <c r="D28" s="11">
+        <v>43307.333333333336</v>
+      </c>
+      <c r="E28" s="7"/>
+      <c r="F28" s="22"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C29" s="11">
         <v>43306.333333333336</v>
       </c>
-      <c r="D6" s="17">
-        <v>43306.833333333336</v>
-      </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="C7" s="17">
+      <c r="D29" s="11">
+        <v>43307.333333333336</v>
+      </c>
+      <c r="E29" s="7"/>
+      <c r="F29" s="22"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C30" s="11">
         <v>43306.333333333336</v>
       </c>
-      <c r="D7" s="17">
-        <v>43306.833333333336</v>
-      </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="C8" s="17">
+      <c r="D30" s="11">
+        <v>43307.333333333336</v>
+      </c>
+      <c r="E30" s="7"/>
+      <c r="F30" s="22"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C31" s="11">
         <v>43306.333333333336</v>
       </c>
-      <c r="D8" s="17">
-        <v>43306.833333333336</v>
-      </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="C9" s="17">
+      <c r="D31" s="11">
+        <v>43307.333333333336</v>
+      </c>
+      <c r="E31" s="7"/>
+      <c r="F31" s="22"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C32" s="11">
         <v>43306.333333333336</v>
       </c>
-      <c r="D9" s="17">
-        <v>43306.833333333336</v>
-      </c>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="C10" s="17">
-        <v>43306.333333333336</v>
-      </c>
-      <c r="D10" s="17">
-        <v>43306.833333333336</v>
-      </c>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="C11" s="17">
-        <v>43306.333333333336</v>
-      </c>
-      <c r="D11" s="17">
-        <v>43306.833333333336</v>
-      </c>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="C12" s="17">
-        <v>43306.333333333336</v>
-      </c>
-      <c r="D12" s="17">
-        <v>43306.833333333336</v>
-      </c>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="C13" s="17">
-        <v>43306.333333333336</v>
-      </c>
-      <c r="D13" s="17">
+      <c r="D32" s="11">
         <v>43307.333333333336</v>
       </c>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="C14" s="17">
-        <v>43306.333333333336</v>
-      </c>
-      <c r="D14" s="17">
-        <v>43307.333333333336</v>
-      </c>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="C15" s="17">
-        <v>43306.333333333336</v>
-      </c>
-      <c r="D15" s="17">
-        <v>43307.333333333336</v>
-      </c>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="C16" s="17">
-        <v>43306.333333333336</v>
-      </c>
-      <c r="D16" s="17">
-        <v>43307.333333333336</v>
-      </c>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="C17" s="17">
-        <v>43306.333333333336</v>
-      </c>
-      <c r="D17" s="17">
-        <v>43307.333333333336</v>
-      </c>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-    </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="C18" s="17">
-        <v>43306.333333333336</v>
-      </c>
-      <c r="D18" s="17">
-        <v>43307.333333333336</v>
-      </c>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="C19" s="17">
-        <v>43306.333333333336</v>
-      </c>
-      <c r="D19" s="17">
-        <v>43307.333333333336</v>
-      </c>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="C20" s="17">
-        <v>43306.333333333336</v>
-      </c>
-      <c r="D20" s="17">
-        <v>43307.333333333336</v>
-      </c>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-    </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="C21" s="17">
-        <v>43306.333333333336</v>
-      </c>
-      <c r="D21" s="17">
-        <v>43307.333333333336</v>
-      </c>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11" t="s">
+      <c r="E32" s="7"/>
+      <c r="F32" s="22" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="C22" s="17">
-        <v>43306.333333333336</v>
-      </c>
-      <c r="D22" s="17">
-        <v>43307.333333333336</v>
-      </c>
-      <c r="E22" s="11"/>
-      <c r="F22" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="C23" s="17">
-        <v>43306.333333333336</v>
-      </c>
-      <c r="D23" s="17">
-        <v>43307.333333333336</v>
-      </c>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="C24" s="17">
-        <v>43306.333333333336</v>
-      </c>
-      <c r="D24" s="17">
-        <v>43307.333333333336</v>
-      </c>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="C25" s="17">
-        <v>43306.333333333336</v>
-      </c>
-      <c r="D25" s="17">
-        <v>43307.333333333336</v>
-      </c>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="C26" s="17">
-        <v>43306.333333333336</v>
-      </c>
-      <c r="D26" s="17">
-        <v>43307.333333333336</v>
-      </c>
-      <c r="E26" s="11"/>
-      <c r="F26" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="B27" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="C27" s="17">
-        <v>43306.333333333336</v>
-      </c>
-      <c r="D27" s="17">
-        <v>43307.333333333336</v>
-      </c>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="B28" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="C28" s="17">
-        <v>43306.333333333336</v>
-      </c>
-      <c r="D28" s="17">
-        <v>43307.333333333336</v>
-      </c>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="C29" s="17">
-        <v>43306.333333333336</v>
-      </c>
-      <c r="D29" s="17">
-        <v>43307.333333333336</v>
-      </c>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="B30" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="C30" s="17">
-        <v>43306.333333333336</v>
-      </c>
-      <c r="D30" s="17">
-        <v>43307.333333333336</v>
-      </c>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="B31" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="C31" s="17">
-        <v>43306.333333333336</v>
-      </c>
-      <c r="D31" s="17">
-        <v>43307.333333333336</v>
-      </c>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="B32" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="C32" s="17">
-        <v>43306.333333333336</v>
-      </c>
-      <c r="D32" s="17">
-        <v>43307.333333333336</v>
-      </c>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11" t="s">
-        <v>109</v>
-      </c>
-    </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="20"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
+      <c r="A33" s="14"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="22"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="20"/>
-      <c r="B34" s="12"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
+      <c r="A34" s="14"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="22"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="20"/>
-      <c r="B35" s="12"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
+      <c r="A35" s="14"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="22"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="20"/>
-      <c r="B36" s="12"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
+      <c r="A36" s="14"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="22"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="20"/>
-      <c r="B37" s="12"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
+      <c r="A37" s="14"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="22"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="20"/>
-      <c r="B38" s="12"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
+      <c r="A38" s="14"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="22"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="20"/>
-      <c r="B39" s="12"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
+      <c r="A39" s="14"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="22"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="20"/>
-      <c r="B40" s="12"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
+      <c r="A40" s="14"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="22"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="20"/>
-      <c r="B41" s="12"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
+      <c r="A41" s="14"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="22"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="20"/>
-      <c r="B42" s="12"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
+      <c r="A42" s="14"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="22"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="20"/>
-      <c r="B43" s="12"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="11"/>
+      <c r="A43" s="14"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="22"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="20"/>
-      <c r="B44" s="12"/>
-      <c r="C44" s="17"/>
-      <c r="D44" s="17"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="11"/>
+      <c r="A44" s="14"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="22"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" s="20"/>
-      <c r="B45" s="12"/>
-      <c r="C45" s="17"/>
-      <c r="D45" s="17"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="11"/>
+      <c r="A45" s="14"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="22"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" s="20"/>
-      <c r="B46" s="12"/>
-      <c r="C46" s="17"/>
-      <c r="D46" s="17"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="11"/>
+      <c r="A46" s="14"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="22"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" s="20"/>
-      <c r="B47" s="12"/>
-      <c r="C47" s="17"/>
-      <c r="D47" s="17"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="11"/>
+      <c r="A47" s="14"/>
+      <c r="B47" s="8"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="22"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" s="20"/>
-      <c r="B48" s="12"/>
-      <c r="C48" s="17"/>
-      <c r="D48" s="17"/>
-      <c r="E48" s="11"/>
-      <c r="F48" s="11"/>
+      <c r="A48" s="14"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="22"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" s="20"/>
-      <c r="B49" s="12"/>
-      <c r="C49" s="17"/>
-      <c r="D49" s="17"/>
-      <c r="E49" s="11"/>
-      <c r="F49" s="11"/>
+      <c r="A49" s="14"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="22"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50" s="20"/>
-      <c r="B50" s="12"/>
-      <c r="C50" s="17"/>
-      <c r="D50" s="17"/>
-      <c r="E50" s="11"/>
-      <c r="F50" s="11"/>
+      <c r="A50" s="14"/>
+      <c r="B50" s="8"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="22"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A51" s="20"/>
-      <c r="B51" s="12"/>
-      <c r="C51" s="17"/>
-      <c r="D51" s="17"/>
-      <c r="E51" s="11"/>
-      <c r="F51" s="11"/>
+      <c r="A51" s="14"/>
+      <c r="B51" s="8"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="22"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52" s="20"/>
-      <c r="B52" s="12"/>
-      <c r="C52" s="17"/>
-      <c r="D52" s="17"/>
-      <c r="E52" s="11"/>
-      <c r="F52" s="11"/>
+      <c r="A52" s="14"/>
+      <c r="B52" s="8"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="22"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A53" s="20"/>
-      <c r="B53" s="12"/>
-      <c r="C53" s="17"/>
-      <c r="D53" s="17"/>
-      <c r="E53" s="11"/>
-      <c r="F53" s="11"/>
+      <c r="A53" s="14"/>
+      <c r="B53" s="8"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="22"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A54" s="20"/>
-      <c r="B54" s="12"/>
-      <c r="C54" s="17"/>
-      <c r="D54" s="17"/>
-      <c r="E54" s="11"/>
-      <c r="F54" s="11"/>
+      <c r="A54" s="14"/>
+      <c r="B54" s="8"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="22"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A55" s="20"/>
-      <c r="B55" s="12"/>
-      <c r="C55" s="17"/>
-      <c r="D55" s="17"/>
-      <c r="E55" s="11"/>
-      <c r="F55" s="11"/>
+      <c r="A55" s="14"/>
+      <c r="B55" s="8"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="22"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A56" s="20"/>
-      <c r="B56" s="12"/>
-      <c r="C56" s="17"/>
-      <c r="D56" s="17"/>
-      <c r="E56" s="11"/>
-      <c r="F56" s="11"/>
+      <c r="A56" s="14"/>
+      <c r="B56" s="8"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="22"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A57" s="20"/>
-      <c r="B57" s="12"/>
-      <c r="C57" s="17"/>
-      <c r="D57" s="17"/>
-      <c r="E57" s="11"/>
-      <c r="F57" s="11"/>
+      <c r="A57" s="14"/>
+      <c r="B57" s="8"/>
+      <c r="C57" s="11"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="22"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A58" s="20"/>
-      <c r="B58" s="12"/>
-      <c r="C58" s="17"/>
-      <c r="D58" s="17"/>
-      <c r="E58" s="11"/>
-      <c r="F58" s="11"/>
+      <c r="A58" s="14"/>
+      <c r="B58" s="8"/>
+      <c r="C58" s="11"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="22"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A59" s="20"/>
-      <c r="B59" s="12"/>
-      <c r="C59" s="17"/>
-      <c r="D59" s="17"/>
-      <c r="E59" s="11"/>
-      <c r="F59" s="11"/>
+      <c r="A59" s="14"/>
+      <c r="B59" s="8"/>
+      <c r="C59" s="11"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="22"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A60" s="20"/>
-      <c r="B60" s="12"/>
-      <c r="C60" s="17"/>
-      <c r="D60" s="17"/>
-      <c r="E60" s="11"/>
-      <c r="F60" s="11"/>
+      <c r="A60" s="14"/>
+      <c r="B60" s="8"/>
+      <c r="C60" s="11"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="22"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A61" s="20"/>
-      <c r="B61" s="12"/>
-      <c r="C61" s="17"/>
-      <c r="D61" s="17"/>
-      <c r="E61" s="11"/>
-      <c r="F61" s="11"/>
+      <c r="A61" s="14"/>
+      <c r="B61" s="8"/>
+      <c r="C61" s="11"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="22"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A62" s="20"/>
-      <c r="B62" s="12"/>
-      <c r="C62" s="17"/>
-      <c r="D62" s="17"/>
-      <c r="E62" s="11"/>
-      <c r="F62" s="11"/>
+      <c r="A62" s="14"/>
+      <c r="B62" s="8"/>
+      <c r="C62" s="11"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="22"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A63" s="20"/>
-      <c r="B63" s="12"/>
-      <c r="C63" s="17"/>
-      <c r="D63" s="17"/>
-      <c r="E63" s="11"/>
-      <c r="F63" s="11"/>
+      <c r="A63" s="14"/>
+      <c r="B63" s="8"/>
+      <c r="C63" s="11"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="22"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A64" s="20"/>
-      <c r="B64" s="12"/>
-      <c r="C64" s="17"/>
-      <c r="D64" s="17"/>
-      <c r="E64" s="11"/>
-      <c r="F64" s="11"/>
+      <c r="A64" s="14"/>
+      <c r="B64" s="8"/>
+      <c r="C64" s="11"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="7"/>
+      <c r="F64" s="22"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A65" s="20"/>
-      <c r="B65" s="12"/>
-      <c r="C65" s="17"/>
-      <c r="D65" s="17"/>
-      <c r="E65" s="11"/>
-      <c r="F65" s="11"/>
+      <c r="A65" s="14"/>
+      <c r="B65" s="8"/>
+      <c r="C65" s="11"/>
+      <c r="D65" s="11"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="22"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A66" s="20"/>
-      <c r="B66" s="12"/>
-      <c r="C66" s="17"/>
-      <c r="D66" s="17"/>
-      <c r="E66" s="11"/>
-      <c r="F66" s="11"/>
+      <c r="A66" s="14"/>
+      <c r="B66" s="8"/>
+      <c r="C66" s="11"/>
+      <c r="D66" s="11"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="22"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A67" s="20"/>
-      <c r="B67" s="12"/>
-      <c r="C67" s="17"/>
-      <c r="D67" s="17"/>
-      <c r="E67" s="11"/>
-      <c r="F67" s="11"/>
+      <c r="A67" s="14"/>
+      <c r="B67" s="8"/>
+      <c r="C67" s="11"/>
+      <c r="D67" s="11"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="22"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A68" s="20"/>
-      <c r="B68" s="12"/>
-      <c r="C68" s="17"/>
-      <c r="D68" s="17"/>
-      <c r="E68" s="11"/>
-      <c r="F68" s="11"/>
+      <c r="A68" s="14"/>
+      <c r="B68" s="8"/>
+      <c r="C68" s="11"/>
+      <c r="D68" s="11"/>
+      <c r="E68" s="7"/>
+      <c r="F68" s="22"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A69" s="20"/>
-      <c r="B69" s="12"/>
-      <c r="C69" s="17"/>
-      <c r="D69" s="17"/>
-      <c r="E69" s="11"/>
-      <c r="F69" s="11"/>
+      <c r="A69" s="14"/>
+      <c r="B69" s="8"/>
+      <c r="C69" s="11"/>
+      <c r="D69" s="11"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="22"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A70" s="20"/>
-      <c r="B70" s="12"/>
-      <c r="C70" s="17"/>
-      <c r="D70" s="17"/>
-      <c r="E70" s="11"/>
-      <c r="F70" s="11"/>
+      <c r="A70" s="14"/>
+      <c r="B70" s="8"/>
+      <c r="C70" s="11"/>
+      <c r="D70" s="11"/>
+      <c r="E70" s="7"/>
+      <c r="F70" s="22"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A71" s="20"/>
-      <c r="B71" s="12"/>
-      <c r="C71" s="17"/>
-      <c r="D71" s="17"/>
-      <c r="E71" s="11"/>
-      <c r="F71" s="11"/>
+      <c r="A71" s="14"/>
+      <c r="B71" s="8"/>
+      <c r="C71" s="11"/>
+      <c r="D71" s="11"/>
+      <c r="E71" s="7"/>
+      <c r="F71" s="22"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A72" s="20"/>
-      <c r="B72" s="12"/>
-      <c r="C72" s="17"/>
-      <c r="D72" s="17"/>
-      <c r="E72" s="11"/>
-      <c r="F72" s="11"/>
+      <c r="A72" s="14"/>
+      <c r="B72" s="8"/>
+      <c r="C72" s="11"/>
+      <c r="D72" s="11"/>
+      <c r="E72" s="7"/>
+      <c r="F72" s="22"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A73" s="20"/>
-      <c r="B73" s="12"/>
-      <c r="C73" s="17"/>
-      <c r="D73" s="17"/>
-      <c r="E73" s="11"/>
-      <c r="F73" s="11"/>
+      <c r="A73" s="14"/>
+      <c r="B73" s="8"/>
+      <c r="C73" s="11"/>
+      <c r="D73" s="11"/>
+      <c r="E73" s="7"/>
+      <c r="F73" s="22"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A74" s="20"/>
-      <c r="B74" s="12"/>
-      <c r="C74" s="17"/>
-      <c r="D74" s="17"/>
-      <c r="E74" s="11"/>
-      <c r="F74" s="12"/>
+      <c r="A74" s="14"/>
+      <c r="B74" s="8"/>
+      <c r="C74" s="11"/>
+      <c r="D74" s="11"/>
+      <c r="E74" s="7"/>
+      <c r="F74" s="23"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A75" s="20"/>
-      <c r="B75" s="12"/>
-      <c r="C75" s="17"/>
-      <c r="D75" s="17"/>
-      <c r="E75" s="11"/>
-      <c r="F75" s="12"/>
-    </row>
-    <row r="76" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A76" s="20"/>
-      <c r="B76" s="12"/>
-      <c r="C76" s="17"/>
-      <c r="D76" s="17"/>
-      <c r="E76" s="11"/>
-      <c r="F76" s="13"/>
-    </row>
-    <row r="77" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A77" s="20"/>
-      <c r="B77" s="12"/>
-      <c r="C77" s="17"/>
-      <c r="D77" s="17"/>
-      <c r="E77" s="11"/>
-      <c r="F77" s="13"/>
-    </row>
-    <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A78" s="20"/>
-      <c r="B78" s="12"/>
-      <c r="C78" s="17"/>
-      <c r="D78" s="17"/>
-      <c r="E78" s="11"/>
-      <c r="F78" s="13"/>
+      <c r="A75" s="14"/>
+      <c r="B75" s="8"/>
+      <c r="C75" s="11"/>
+      <c r="D75" s="11"/>
+      <c r="E75" s="7"/>
+      <c r="F75" s="23"/>
+    </row>
+    <row r="76" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A76" s="14"/>
+      <c r="B76" s="8"/>
+      <c r="C76" s="11"/>
+      <c r="D76" s="11"/>
+      <c r="E76" s="7"/>
+      <c r="F76" s="24"/>
+    </row>
+    <row r="77" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A77" s="14"/>
+      <c r="B77" s="8"/>
+      <c r="C77" s="11"/>
+      <c r="D77" s="11"/>
+      <c r="E77" s="7"/>
+      <c r="F77" s="24"/>
+    </row>
+    <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A78" s="14"/>
+      <c r="B78" s="8"/>
+      <c r="C78" s="11"/>
+      <c r="D78" s="11"/>
+      <c r="E78" s="7"/>
+      <c r="F78" s="24"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A79" s="20"/>
-      <c r="B79" s="12"/>
-      <c r="C79" s="17"/>
-      <c r="D79" s="17"/>
-      <c r="E79" s="11"/>
-      <c r="F79" s="12"/>
-    </row>
-    <row r="80" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A80" s="20"/>
-      <c r="B80" s="12"/>
-      <c r="C80" s="17"/>
-      <c r="D80" s="17"/>
-      <c r="E80" s="11"/>
-      <c r="F80" s="13"/>
-    </row>
-    <row r="81" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A81" s="20"/>
-      <c r="B81" s="12"/>
-      <c r="C81" s="17"/>
-      <c r="D81" s="17"/>
-      <c r="E81" s="11"/>
-      <c r="F81" s="13"/>
-    </row>
-    <row r="82" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A82" s="20"/>
-      <c r="B82" s="12"/>
-      <c r="C82" s="17"/>
-      <c r="D82" s="17"/>
-      <c r="E82" s="11"/>
-      <c r="F82" s="13"/>
-    </row>
-    <row r="83" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A83" s="20"/>
-      <c r="B83" s="12"/>
-      <c r="C83" s="17"/>
-      <c r="D83" s="17"/>
-      <c r="E83" s="11"/>
-      <c r="F83" s="13"/>
-    </row>
-    <row r="84" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A84" s="20"/>
-      <c r="B84" s="12"/>
-      <c r="C84" s="17"/>
-      <c r="D84" s="17"/>
-      <c r="E84" s="11"/>
-      <c r="F84" s="13"/>
+      <c r="A79" s="14"/>
+      <c r="B79" s="8"/>
+      <c r="C79" s="11"/>
+      <c r="D79" s="11"/>
+      <c r="E79" s="7"/>
+      <c r="F79" s="23"/>
+    </row>
+    <row r="80" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A80" s="14"/>
+      <c r="B80" s="8"/>
+      <c r="C80" s="11"/>
+      <c r="D80" s="11"/>
+      <c r="E80" s="7"/>
+      <c r="F80" s="24"/>
+    </row>
+    <row r="81" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A81" s="14"/>
+      <c r="B81" s="8"/>
+      <c r="C81" s="11"/>
+      <c r="D81" s="11"/>
+      <c r="E81" s="7"/>
+      <c r="F81" s="24"/>
+    </row>
+    <row r="82" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A82" s="14"/>
+      <c r="B82" s="8"/>
+      <c r="C82" s="11"/>
+      <c r="D82" s="11"/>
+      <c r="E82" s="7"/>
+      <c r="F82" s="24"/>
+    </row>
+    <row r="83" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A83" s="14"/>
+      <c r="B83" s="8"/>
+      <c r="C83" s="11"/>
+      <c r="D83" s="11"/>
+      <c r="E83" s="7"/>
+      <c r="F83" s="24"/>
+    </row>
+    <row r="84" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A84" s="14"/>
+      <c r="B84" s="8"/>
+      <c r="C84" s="11"/>
+      <c r="D84" s="11"/>
+      <c r="E84" s="7"/>
+      <c r="F84" s="24"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A85" s="20"/>
-      <c r="B85" s="12"/>
-      <c r="C85" s="17"/>
-      <c r="D85" s="17"/>
-      <c r="E85" s="11"/>
-      <c r="F85" s="12"/>
+      <c r="A85" s="14"/>
+      <c r="B85" s="8"/>
+      <c r="C85" s="11"/>
+      <c r="D85" s="11"/>
+      <c r="E85" s="7"/>
+      <c r="F85" s="23"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A86" s="20"/>
-      <c r="B86" s="12"/>
-      <c r="C86" s="17"/>
-      <c r="D86" s="17"/>
-      <c r="E86" s="11"/>
-      <c r="F86" s="12"/>
+      <c r="A86" s="14"/>
+      <c r="B86" s="8"/>
+      <c r="C86" s="11"/>
+      <c r="D86" s="11"/>
+      <c r="E86" s="7"/>
+      <c r="F86" s="23"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A87" s="20"/>
-      <c r="B87" s="12"/>
-      <c r="C87" s="17"/>
-      <c r="D87" s="17"/>
-      <c r="E87" s="11"/>
-      <c r="F87" s="12"/>
-    </row>
-    <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A88" s="20"/>
-      <c r="B88" s="12"/>
-      <c r="C88" s="17"/>
-      <c r="D88" s="17"/>
-      <c r="E88" s="11"/>
-      <c r="F88" s="13"/>
-    </row>
-    <row r="89" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A89" s="20"/>
-      <c r="B89" s="12"/>
-      <c r="C89" s="17"/>
-      <c r="D89" s="17"/>
-      <c r="E89" s="11"/>
-      <c r="F89" s="13"/>
-    </row>
-    <row r="90" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A90" s="20"/>
-      <c r="B90" s="12"/>
-      <c r="C90" s="17"/>
-      <c r="D90" s="17"/>
-      <c r="E90" s="11"/>
-      <c r="F90" s="13"/>
+      <c r="A87" s="14"/>
+      <c r="B87" s="8"/>
+      <c r="C87" s="11"/>
+      <c r="D87" s="11"/>
+      <c r="E87" s="7"/>
+      <c r="F87" s="23"/>
+    </row>
+    <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A88" s="14"/>
+      <c r="B88" s="8"/>
+      <c r="C88" s="11"/>
+      <c r="D88" s="11"/>
+      <c r="E88" s="7"/>
+      <c r="F88" s="24"/>
+    </row>
+    <row r="89" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A89" s="14"/>
+      <c r="B89" s="8"/>
+      <c r="C89" s="11"/>
+      <c r="D89" s="11"/>
+      <c r="E89" s="7"/>
+      <c r="F89" s="24"/>
+    </row>
+    <row r="90" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A90" s="14"/>
+      <c r="B90" s="8"/>
+      <c r="C90" s="11"/>
+      <c r="D90" s="11"/>
+      <c r="E90" s="7"/>
+      <c r="F90" s="24"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A91" s="20"/>
-      <c r="B91" s="12"/>
-      <c r="C91" s="17"/>
-      <c r="D91" s="17"/>
-      <c r="E91" s="11"/>
-      <c r="F91" s="12"/>
+      <c r="A91" s="14"/>
+      <c r="B91" s="8"/>
+      <c r="C91" s="11"/>
+      <c r="D91" s="11"/>
+      <c r="E91" s="7"/>
+      <c r="F91" s="23"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A92" s="20"/>
-      <c r="B92" s="12"/>
-      <c r="C92" s="17"/>
-      <c r="D92" s="17"/>
-      <c r="E92" s="11"/>
-      <c r="F92" s="12"/>
+      <c r="A92" s="14"/>
+      <c r="B92" s="8"/>
+      <c r="C92" s="11"/>
+      <c r="D92" s="11"/>
+      <c r="E92" s="7"/>
+      <c r="F92" s="23"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A93" s="20"/>
-      <c r="B93" s="12"/>
-      <c r="C93" s="17"/>
-      <c r="D93" s="17"/>
-      <c r="E93" s="11"/>
-      <c r="F93" s="12"/>
+      <c r="A93" s="14"/>
+      <c r="B93" s="8"/>
+      <c r="C93" s="11"/>
+      <c r="D93" s="11"/>
+      <c r="E93" s="7"/>
+      <c r="F93" s="23"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A94" s="20"/>
-      <c r="B94" s="12"/>
-      <c r="C94" s="17"/>
-      <c r="D94" s="17"/>
-      <c r="E94" s="11"/>
-      <c r="F94" s="12"/>
+      <c r="A94" s="14"/>
+      <c r="B94" s="8"/>
+      <c r="C94" s="11"/>
+      <c r="D94" s="11"/>
+      <c r="E94" s="7"/>
+      <c r="F94" s="23"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A95" s="20"/>
-      <c r="B95" s="12"/>
-      <c r="C95" s="17"/>
-      <c r="D95" s="17"/>
-      <c r="E95" s="11"/>
-      <c r="F95" s="12"/>
+      <c r="A95" s="14"/>
+      <c r="B95" s="8"/>
+      <c r="C95" s="11"/>
+      <c r="D95" s="11"/>
+      <c r="E95" s="7"/>
+      <c r="F95" s="23"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A96" s="20"/>
-      <c r="B96" s="12"/>
-      <c r="C96" s="17"/>
-      <c r="D96" s="17"/>
-      <c r="E96" s="11"/>
-      <c r="F96" s="12"/>
+      <c r="A96" s="14"/>
+      <c r="B96" s="8"/>
+      <c r="C96" s="11"/>
+      <c r="D96" s="11"/>
+      <c r="E96" s="7"/>
+      <c r="F96" s="23"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A97" s="20"/>
-      <c r="B97" s="12"/>
-      <c r="C97" s="17"/>
-      <c r="D97" s="17"/>
-      <c r="E97" s="11"/>
-      <c r="F97" s="12"/>
+      <c r="A97" s="14"/>
+      <c r="B97" s="8"/>
+      <c r="C97" s="11"/>
+      <c r="D97" s="11"/>
+      <c r="E97" s="7"/>
+      <c r="F97" s="23"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:F2"/>
